--- a/Ben_pizza/data/recipe.xlsx
+++ b/Ben_pizza/data/recipe.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\SQL-Projects\Ben_pizza\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FDCDBC6-990F-44C6-A403-30DFBAD624D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8205332A-9F1A-408D-93B5-A93028595458}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="43">
   <si>
     <t>row_id</t>
   </si>
@@ -471,10 +471,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D99"/>
+  <dimension ref="A1:D94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="E88" sqref="E1:E1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="F95" sqref="F95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1798,76 +1798,6 @@
         <v>160</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A95">
-        <v>89</v>
-      </c>
-      <c r="B95" t="s">
-        <v>41</v>
-      </c>
-      <c r="C95" t="s">
-        <v>5</v>
-      </c>
-      <c r="D95">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A96">
-        <v>90</v>
-      </c>
-      <c r="B96" t="s">
-        <v>41</v>
-      </c>
-      <c r="C96" t="s">
-        <v>6</v>
-      </c>
-      <c r="D96">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A97">
-        <v>91</v>
-      </c>
-      <c r="B97" t="s">
-        <v>42</v>
-      </c>
-      <c r="C97" t="s">
-        <v>27</v>
-      </c>
-      <c r="D97">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A98">
-        <v>92</v>
-      </c>
-      <c r="B98" t="s">
-        <v>42</v>
-      </c>
-      <c r="C98" t="s">
-        <v>5</v>
-      </c>
-      <c r="D98">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A99">
-        <v>93</v>
-      </c>
-      <c r="B99" t="s">
-        <v>42</v>
-      </c>
-      <c r="C99" t="s">
-        <v>6</v>
-      </c>
-      <c r="D99">
-        <v>160</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
